--- a/Antonia_Suciu/lab2/Book1.xlsx
+++ b/Antonia_Suciu/lab2/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MQ_Summer_Internship_2023\SOAC_23-24\Antonia_Suciu\lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22C9197-0695-47BF-9252-BBE58C175EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57950BC4-B5FF-4335-BF25-C6AB3218F338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2B89D646-3AA6-47D7-8BDB-9835D5FA55F2}"/>
+    <workbookView xWindow="0" yWindow="1152" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{2B89D646-3AA6-47D7-8BDB-9835D5FA55F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -16537,7 +16537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64144654-F24A-409C-8BEA-DBF54BA87619}">
   <dimension ref="A5:L111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
